--- a/LCS-实时通讯软件5组/03.项目文件/个人日报/个人日报 _刘乐也.xlsx
+++ b/LCS-实时通讯软件5组/03.项目文件/个人日报/个人日报 _刘乐也.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6950" tabRatio="747" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="9490" windowHeight="6800" tabRatio="747" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="95">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -93,7 +93,7 @@
     <t>文档编号：D0000-PPC-5-IDR-2022</t>
   </si>
   <si>
-    <t>LCS（5）</t>
+    <t>LCS实时通讯软件（5）</t>
   </si>
   <si>
     <t>个人日报</t>
@@ -189,7 +189,7 @@
     <t>项目名称:</t>
   </si>
   <si>
-    <t>LCS</t>
+    <t>LCS实时通讯软件</t>
   </si>
   <si>
     <t>小组编号：</t>
@@ -219,7 +219,7 @@
     <t>关键任务</t>
   </si>
   <si>
-    <t>听老师讲课，了解Linux以及虚拟机的安装</t>
+    <t>听老师讲课，了解GT Creator的安装步骤以及一些基本的QT代码</t>
   </si>
   <si>
     <t>计划日期</t>
@@ -267,16 +267,36 @@
     <t>听老师讲课</t>
   </si>
   <si>
-    <t>对Qt的基本操作方式有了一定认识</t>
+    <r>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以及虚拟机有了一定了解</t>
+    </r>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
-    <t>跟随老师进行槽函数和UI界面的练习</t>
+    <t>安装Qt</t>
   </si>
   <si>
-    <t>对于槽函数的构建和UI的连接有了一定认识</t>
+    <t>Ubuntu系统上安装了Qt</t>
   </si>
   <si>
     <t>合计</t>
@@ -318,146 +338,112 @@
     <t>听老师讲课，熟悉Qt的使用</t>
   </si>
   <si>
-    <r>
-      <t>对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Linux</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以及虚拟机有了一定了解</t>
-    </r>
+    <t>对Qt的基本操作方法渐渐熟悉</t>
   </si>
   <si>
-    <t>安装虚拟机</t>
+    <t>跟随老师进行信号与槽函数的练习</t>
   </si>
   <si>
-    <r>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>VMware</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上安装了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ubuntu18.04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统</t>
-    </r>
+    <t>对于信号与槽函数的构建有了一定认识</t>
   </si>
   <si>
-    <t>安装Qt</t>
+    <t>学习Event事件</t>
   </si>
   <si>
-    <t>Ubuntu系统上安装了Qt</t>
+    <t>了解Event的基本知识</t>
   </si>
   <si>
-    <t>分配任务，学习通信</t>
+    <t>跟随老师进行Event事件的练习</t>
   </si>
   <si>
-    <t>初步学习Socket通信</t>
-  </si>
-  <si>
-    <t>上网找教程另外自己动手实验</t>
-  </si>
-  <si>
-    <t>初步编写socket通信服务器端代码</t>
-  </si>
-  <si>
-    <t>仿照网上教程，编写自己的socket通信，包括侦听，接受，连接，数据交换</t>
+    <t>懂得如何使用Event</t>
   </si>
   <si>
     <t>尝试与客户端进行socket通信</t>
   </si>
   <si>
-    <t>尝试在校园网环境下与客户端进行socket通信，未成功</t>
+    <t>学习文件操作</t>
+  </si>
+  <si>
+    <t>了解文件操作的基本知识</t>
+  </si>
+  <si>
+    <t>跟随老师完成文件操作的练习</t>
+  </si>
+  <si>
+    <t>对文件操作越来越熟练</t>
+  </si>
+  <si>
+    <t>学习Socket通信</t>
+  </si>
+  <si>
+    <t>了解Socket的基本知识</t>
+  </si>
+  <si>
+    <t>跟随老师完成Socket通信的练习</t>
+  </si>
+  <si>
+    <t>对Socket通信有初步的了解</t>
+  </si>
+  <si>
+    <t>项目分配任务</t>
+  </si>
+  <si>
+    <t>和组员们讨论要制作的项目以及分配任务</t>
+  </si>
+  <si>
+    <t>继续学习Socket通信，以及开始学习连接数据库</t>
+  </si>
+  <si>
+    <t>继续学习Socket通信</t>
+  </si>
+  <si>
+    <t>完成Socket通信的练习</t>
+  </si>
+  <si>
+    <t>学习关于数据库</t>
+  </si>
+  <si>
+    <t>了解数据库和连接方法的基本知识</t>
+  </si>
+  <si>
+    <t>学习连接数据库</t>
+  </si>
+  <si>
+    <t>对连接数据库有一定的了解</t>
+  </si>
+  <si>
+    <t>初步登录界面的编译</t>
+  </si>
+  <si>
+    <t>设计登录界面的控件</t>
+  </si>
+  <si>
+    <t>与组员讨论后，在QT软件上创建相关控件，建立初步的登录界面的控件函数</t>
+  </si>
+  <si>
+    <t>设计登录与注册界面的控件</t>
+  </si>
+  <si>
+    <t>对已设计好的登录控件进行调试，并修改</t>
+  </si>
+  <si>
+    <t>设计注册界面的控件</t>
+  </si>
+  <si>
+    <t>与组员讨论后，在QT软件上创建相关控件，建立初步的注册界面的控件函数</t>
+  </si>
+  <si>
+    <t>项目程序调试</t>
+  </si>
+  <si>
+    <t>对注册与登录控件的最终调试</t>
+  </si>
+  <si>
+    <t>查看网上资料进行改进</t>
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>发现校园网环境不符合之后，改为手机热点进行连接</t>
-  </si>
-  <si>
-    <t>服务器与客户端连在同一个手机热点下进行socket通信，成功</t>
-  </si>
-  <si>
-    <t>进行socket通信代码的完善，封装成可以调用的类</t>
-  </si>
-  <si>
-    <t>尝试将服务器端的socket通信函数封装成类</t>
-  </si>
-  <si>
-    <t>初步设计文档的编写</t>
-  </si>
-  <si>
-    <t>完成设计文档的内容撰写</t>
-  </si>
-  <si>
-    <t>将邮件系统的整体概要设计落实到文档中</t>
-  </si>
-  <si>
-    <t>继续将socket通信封装成类，并尝试构建底层的收发邮件逻辑</t>
-  </si>
-  <si>
-    <t>继续将socket通信封装成类</t>
-  </si>
-  <si>
-    <t>重新思考收发邮件的过程，并依此设计socket类</t>
-  </si>
-  <si>
-    <t>尝试设计底层的收发邮件逻辑</t>
-  </si>
-  <si>
-    <t>与组内其他成员讨论并确定底层逻辑，尝试实现</t>
-  </si>
-  <si>
-    <t>尝试实现多线程</t>
-  </si>
-  <si>
-    <t>尝试实现socket服务器多线程</t>
-  </si>
-  <si>
-    <t>寻找网上例子并学习</t>
   </si>
   <si>
     <t>与其他部分合代码</t>
@@ -475,13 +461,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="m/d;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="m/d;@"/>
     <numFmt numFmtId="179" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -578,13 +564,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -720,10 +712,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -735,37 +728,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -779,9 +742,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,11 +804,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,44 +857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,19 +896,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,43 +926,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +974,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,13 +1016,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,19 +1040,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,25 +1052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,13 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1089,7 +1081,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1666,19 +1658,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -1799,6 +1778,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
@@ -1822,15 +1858,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="8"/>
@@ -1887,6 +1914,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1926,21 +1979,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1949,168 +1987,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="16" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="66" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="71" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="28" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="15" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2144,7 +2171,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2369,6 +2396,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2390,13 +2426,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2429,219 +2462,229 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="31" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="32" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13021,18 +13064,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A1" s="170"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="153"/>
+      <c r="A1" s="176"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="128" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="62"/>
@@ -13045,7 +13088,7 @@
       <c r="I2" s="86"/>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="132" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="62"/>
@@ -13058,7 +13101,7 @@
       <c r="I3" s="86"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A4" s="171"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -13069,7 +13112,7 @@
       <c r="I4" s="86"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A5" s="171"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -13080,7 +13123,7 @@
       <c r="I5" s="86"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A6" s="171"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -13091,7 +13134,7 @@
       <c r="I6" s="86"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A7" s="171"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -13102,7 +13145,7 @@
       <c r="I7" s="86"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A8" s="171"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -13113,7 +13156,7 @@
       <c r="I8" s="86"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A9" s="171"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -13124,7 +13167,7 @@
       <c r="I9" s="86"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A10" s="171"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -13135,7 +13178,7 @@
       <c r="I10" s="86"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A11" s="171"/>
+      <c r="A11" s="177"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -13146,9 +13189,9 @@
       <c r="I11" s="86"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A12" s="171"/>
+      <c r="A12" s="177"/>
       <c r="B12" s="62"/>
-      <c r="C12" s="172"/>
+      <c r="C12" s="178"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -13157,7 +13200,7 @@
       <c r="I12" s="86"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A13" s="171"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -13168,267 +13211,267 @@
       <c r="I13" s="86"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A14" s="173"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="184"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="190"/>
     </row>
     <row r="15" ht="51.75" customHeight="1" spans="1:9">
-      <c r="A15" s="175" t="s">
+      <c r="A15" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="185"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="191"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A16" s="177"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="184"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="190"/>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="184"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="190"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A18" s="136">
+      <c r="A18" s="142">
         <v>44796</v>
       </c>
-      <c r="B18" s="174"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="184"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="190"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A19" s="173"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="184"/>
+      <c r="A19" s="179"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="190"/>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A20" s="173"/>
-      <c r="B20" s="174"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="184"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="180"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="180"/>
+      <c r="I20" s="190"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A21" s="173"/>
-      <c r="B21" s="174"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="184"/>
+      <c r="A21" s="179"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="190"/>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A22" s="173"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="184"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="190"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="173"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="184"/>
+      <c r="A23" s="179"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="190"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="173"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="184"/>
+      <c r="A24" s="179"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="180"/>
+      <c r="G24" s="180"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="190"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="173"/>
-      <c r="B25" s="174"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="184"/>
+      <c r="A25" s="179"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="190"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="173"/>
-      <c r="B26" s="174"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="184"/>
+      <c r="A26" s="179"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
+      <c r="G26" s="180"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="190"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="173"/>
-      <c r="B27" s="174"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="184"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="190"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="173"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="184"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="190"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="173"/>
-      <c r="B29" s="174"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="184"/>
+      <c r="A29" s="179"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="190"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="173"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="184"/>
+      <c r="A30" s="179"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="180"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="190"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="173"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="184"/>
+      <c r="A31" s="179"/>
+      <c r="B31" s="180"/>
+      <c r="C31" s="180"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="190"/>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="184"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="190"/>
     </row>
     <row r="33" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="184"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="190"/>
     </row>
     <row r="34" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A34" s="180" t="s">
+      <c r="A34" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="184"/>
+      <c r="B34" s="180"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="180"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="190"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="181"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="184"/>
+      <c r="A35" s="187"/>
+      <c r="B35" s="180"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="180"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="190"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="182"/>
-      <c r="B36" s="183"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="186"/>
+      <c r="A36" s="188"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13453,7 +13496,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G11" sqref="G11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -13509,7 +13552,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44794</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -13521,7 +13564,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="70"/>
     </row>
@@ -13544,8 +13587,8 @@
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>76</v>
+      <c r="C5" s="88" t="s">
+        <v>84</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -13561,7 +13604,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43346</v>
+        <v>43333</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -13576,16 +13619,16 @@
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43346</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="74"/>
+      <c r="C7" s="20">
+        <v>43333</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:10">
       <c r="A8" s="13"/>
@@ -13628,16 +13671,16 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>77</v>
+      <c r="C10" s="89" t="s">
+        <v>82</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>4</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>85</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
@@ -13650,16 +13693,16 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>79</v>
+      <c r="C11" s="89" t="s">
+        <v>86</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>80</v>
+      <c r="G11" s="90" t="s">
+        <v>87</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
@@ -13747,7 +13790,7 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
@@ -13939,8 +13982,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -14031,8 +14074,8 @@
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>81</v>
+      <c r="C5" s="88" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -14048,7 +14091,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43347</v>
+        <v>43334</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -14063,16 +14106,16 @@
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43347</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="74"/>
+      <c r="C7" s="20">
+        <v>43334</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:10">
       <c r="A8" s="13"/>
@@ -14115,21 +14158,21 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>82</v>
+      <c r="C10" s="89" t="s">
+        <v>89</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
         <v>5</v>
       </c>
-      <c r="G10" s="36" t="s">
-        <v>83</v>
+      <c r="G10" s="90" t="s">
+        <v>90</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
       <c r="J10" s="78" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:10">
@@ -14419,7 +14462,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -14511,7 +14554,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -14595,7 +14638,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -14603,12 +14646,12 @@
         <v>7</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
       <c r="J10" s="78" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:10">
@@ -14897,8 +14940,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -14990,7 +15033,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -15074,7 +15117,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -15082,7 +15125,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
@@ -15391,169 +15434,169 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:5">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="158"/>
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="164"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:5">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
       <c r="E2" s="86"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:5">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="167" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="155"/>
+      <c r="E3" s="161"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="162">
+      <c r="A4" s="168">
         <v>1</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="164">
+      <c r="D4" s="170">
         <v>44788</v>
       </c>
-      <c r="E4" s="155"/>
+      <c r="E4" s="161"/>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:5">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="155"/>
+      <c r="A5" s="171"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="161"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:5">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="155"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="161"/>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:5">
-      <c r="A7" s="165"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="155"/>
+      <c r="A7" s="171"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="161"/>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:5">
-      <c r="A8" s="165"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="155"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="161"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:5">
-      <c r="A9" s="165"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="155"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="161"/>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:5">
-      <c r="A10" s="165"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="155"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="161"/>
     </row>
     <row r="11" ht="17" customHeight="1" spans="1:5">
-      <c r="A11" s="165"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="155"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="161"/>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:5">
-      <c r="A12" s="165"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="155"/>
+      <c r="A12" s="171"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="161"/>
     </row>
     <row r="13" ht="17" customHeight="1" spans="1:5">
-      <c r="A13" s="165"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="155"/>
+      <c r="A13" s="171"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="161"/>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:5">
-      <c r="A14" s="165"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="155"/>
+      <c r="A14" s="171"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="161"/>
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:5">
-      <c r="A15" s="165"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="155"/>
+      <c r="A15" s="171"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="161"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:5">
-      <c r="A16" s="165"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="155"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="161"/>
     </row>
     <row r="17" ht="17" customHeight="1" spans="1:5">
-      <c r="A17" s="165"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="155"/>
+      <c r="A17" s="171"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="161"/>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:5">
-      <c r="A18" s="165"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="155"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="161"/>
     </row>
     <row r="19" ht="17.45" customHeight="1" spans="1:5">
-      <c r="A19" s="165"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="155"/>
+      <c r="A19" s="171"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="161"/>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:5">
-      <c r="A20" s="165"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="155"/>
+      <c r="A20" s="171"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="161"/>
     </row>
     <row r="21" ht="17" customHeight="1" spans="1:5">
-      <c r="A21" s="165"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="169"/>
+      <c r="A21" s="171"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15572,8 +15615,8 @@
   <sheetPr/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75" customHeight="1"/>
@@ -15588,18 +15631,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A1" s="120"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="153"/>
+      <c r="A1" s="126"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="159"/>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="128" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="62"/>
@@ -15612,20 +15655,20 @@
       <c r="I2" s="86"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="154"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="160"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="132" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="62"/>
@@ -15638,7 +15681,7 @@
       <c r="I4" s="86"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A5" s="127"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -15649,7 +15692,7 @@
       <c r="I5" s="86"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A6" s="127"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -15660,7 +15703,7 @@
       <c r="I6" s="86"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A7" s="127"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -15671,7 +15714,7 @@
       <c r="I7" s="86"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A8" s="127"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -15682,7 +15725,7 @@
       <c r="I8" s="86"/>
     </row>
     <row r="9" ht="9.75" customHeight="1" spans="1:9">
-      <c r="A9" s="127"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -15693,7 +15736,7 @@
       <c r="I9" s="86"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A10" s="127"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -15704,7 +15747,7 @@
       <c r="I10" s="86"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A11" s="127"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -15715,7 +15758,7 @@
       <c r="I11" s="86"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A12" s="127"/>
+      <c r="A12" s="133"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
@@ -15726,7 +15769,7 @@
       <c r="I12" s="86"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A13" s="127"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -15737,7 +15780,7 @@
       <c r="I13" s="86"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A14" s="127"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -15748,282 +15791,284 @@
       <c r="I14" s="86"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A15" s="128"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
       <c r="I15" s="86"/>
     </row>
     <row r="16" ht="53" customHeight="1" spans="1:9">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="136" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
       <c r="I16" s="86"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="132"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
       <c r="I17" s="86"/>
     </row>
     <row r="18" ht="53.25" customHeight="1" spans="1:9">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="140" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
       <c r="I18" s="86"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A19" s="128"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
       <c r="I19" s="86"/>
     </row>
     <row r="20" ht="45.75" customHeight="1" spans="1:9">
-      <c r="A20" s="135"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
       <c r="I20" s="86"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A21" s="136"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
+      <c r="A21" s="142"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
       <c r="I21" s="86"/>
     </row>
     <row r="22" ht="22.15" customHeight="1" spans="1:9">
-      <c r="A22" s="137" t="s">
+      <c r="A22" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
       <c r="I22" s="86"/>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A23" s="128"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="135"/>
+      <c r="C23" s="135"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
       <c r="I23" s="86"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="128"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
       <c r="I24" s="86"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="128"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
       <c r="I25" s="86"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="128"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
       <c r="I26" s="86"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="128"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="135"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
       <c r="I27" s="86"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="128"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
       <c r="I28" s="86"/>
     </row>
     <row r="29" ht="22.15" customHeight="1" spans="1:9">
-      <c r="A29" s="139" t="s">
+      <c r="A29" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
       <c r="I29" s="86"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="132"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
+      <c r="A30" s="138"/>
+      <c r="B30" s="130"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
       <c r="I30" s="86"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="132"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
+      <c r="A31" s="138"/>
+      <c r="B31" s="130"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
       <c r="I31" s="86"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="141"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
+      <c r="A32" s="147"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
       <c r="I32" s="86"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:9">
-      <c r="A33" s="143" t="s">
+      <c r="A33" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="144">
+      <c r="B33" s="150">
         <v>10</v>
       </c>
-      <c r="C33" s="143" t="s">
+      <c r="C33" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="144">
+      <c r="D33" s="150">
         <v>10</v>
       </c>
-      <c r="E33" s="143" t="s">
+      <c r="E33" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="144"/>
-      <c r="G33" s="145" t="s">
+      <c r="F33" s="150">
+        <v>0</v>
+      </c>
+      <c r="G33" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="146">
+      <c r="H33" s="152">
         <v>44788</v>
       </c>
-      <c r="I33" s="155"/>
+      <c r="I33" s="161"/>
     </row>
     <row r="34" ht="29.25" customHeight="1" spans="1:9">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="149" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="143" t="s">
+      <c r="B34" s="153"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="155"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="161"/>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A35" s="148"/>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
+      <c r="A35" s="154"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
       <c r="I35" s="86"/>
     </row>
     <row r="36" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A36" s="150"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
+      <c r="A36" s="156"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
       <c r="I36" s="86"/>
     </row>
     <row r="37" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A37" s="151"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
+      <c r="A37" s="157"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
       <c r="I37" s="87"/>
     </row>
   </sheetData>
@@ -16049,8 +16094,8 @@
   <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I14"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -16081,14 +16126,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="109"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="111"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -16112,10 +16157,10 @@
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:18">
       <c r="A3" s="5"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="119" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -16136,14 +16181,14 @@
       <c r="I3" s="69">
         <v>5</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -16159,14 +16204,14 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
@@ -16182,15 +16227,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="110"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="112"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -16206,15 +16251,15 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="111"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="113"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
@@ -16230,15 +16275,15 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="112"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -16253,14 +16298,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -16280,17 +16325,17 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="113"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="115"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
@@ -16303,23 +16348,23 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>5.25</v>
-      </c>
-      <c r="G10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="90" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -16332,24 +16377,24 @@
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="35">
-        <v>3</v>
-      </c>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="122">
+        <v>2</v>
+      </c>
+      <c r="G11" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="100" t="s">
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -16364,14 +16409,14 @@
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -16386,14 +16431,14 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -16408,14 +16453,14 @@
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -16430,14 +16475,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -16452,14 +16497,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -16472,19 +16517,19 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -16500,14 +16545,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -16525,15 +16570,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="114"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="116"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -16547,15 +16592,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="115"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="117"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -16569,15 +16614,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="115"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="117"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -16591,15 +16636,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="116"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="118"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>
@@ -16752,8 +16797,8 @@
   <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -16784,14 +16829,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="109"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="111"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -16818,7 +16863,7 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="119" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -16839,14 +16884,14 @@
       <c r="I3" s="69">
         <v>2</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -16862,14 +16907,14 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
@@ -16885,15 +16930,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="110"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="112"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -16909,15 +16954,15 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="111"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="113"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
@@ -16933,15 +16978,15 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="112"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -16956,14 +17001,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -16983,17 +17028,17 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="113"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="115"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
@@ -17006,23 +17051,23 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>5.25</v>
-      </c>
-      <c r="G10" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -17036,23 +17081,23 @@
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="35">
-        <v>1</v>
-      </c>
-      <c r="G11" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="90" t="s">
         <v>58</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -17060,29 +17105,23 @@
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>59</v>
-      </c>
+      <c r="C12" s="33"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="35">
-        <v>2</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>60</v>
-      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="100" t="s">
+      <c r="J12" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -17094,17 +17133,17 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="118"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -17119,14 +17158,14 @@
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -17141,14 +17180,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -17163,14 +17202,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -17183,19 +17222,19 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -17211,14 +17250,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -17236,15 +17275,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="114"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="116"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -17258,15 +17297,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="115"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="117"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -17280,15 +17319,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="115"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="117"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -17302,15 +17341,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="116"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="118"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>
@@ -17463,8 +17502,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -17513,14 +17552,14 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="119" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -17532,7 +17571,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="70"/>
     </row>
@@ -17556,7 +17595,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -17572,7 +17611,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -17588,7 +17627,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="23">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -17640,7 +17679,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -17648,7 +17687,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
@@ -17662,7 +17701,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -17670,7 +17709,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
@@ -17950,8 +17989,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -18007,7 +18046,8 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <f>C6</f>
+        <v>43330</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -18043,7 +18083,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -18059,7 +18099,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43343</v>
+        <v>43330</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -18074,16 +18114,16 @@
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43343</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="74"/>
+      <c r="C7" s="20">
+        <v>43330</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:10">
       <c r="A8" s="13"/>
@@ -18127,20 +18167,20 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
       <c r="J10" s="78" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:10">
@@ -18149,7 +18189,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -18157,7 +18197,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
@@ -18170,42 +18210,66 @@
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="38">
+        <v>3</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="79"/>
+      <c r="J12" s="79" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:10">
       <c r="A13" s="13"/>
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="34" t="s">
+        <v>70</v>
+      </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="38">
+        <v>1</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="79"/>
+      <c r="J13" s="79" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:10">
       <c r="A14" s="13"/>
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="38">
+        <v>1</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>73</v>
+      </c>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="79"/>
+      <c r="J14" s="79" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:10">
       <c r="A15" s="13"/>
@@ -18437,8 +18501,8 @@
   <sheetPr/>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -18469,16 +18533,16 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="109"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="111"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:20">
       <c r="A2" s="5"/>
@@ -18514,7 +18578,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44792</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -18528,16 +18592,16 @@
       <c r="I3" s="69">
         <v>2</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
       <c r="T3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:20">
@@ -18553,16 +18617,16 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
+      <c r="S4" s="93"/>
+      <c r="T4" s="93"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:20">
       <c r="A5" s="13"/>
@@ -18570,7 +18634,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -18578,17 +18642,17 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="110"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="112"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:20">
       <c r="A6" s="13"/>
@@ -18596,7 +18660,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43344</v>
+        <v>43331</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -18604,43 +18668,43 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="111"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="113"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:20">
       <c r="A7" s="13"/>
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43344</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="112"/>
+      <c r="C7" s="20">
+        <v>43331</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="114"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:20">
       <c r="A8" s="13"/>
@@ -18655,16 +18719,16 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="97"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:20">
       <c r="A9" s="13"/>
@@ -18684,19 +18748,19 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="113"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="115"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:20">
       <c r="A10" s="13"/>
@@ -18704,30 +18768,30 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
+      <c r="J10" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="103"/>
       <c r="T10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:20">
@@ -18735,23 +18799,31 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="38">
+        <v>2</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
+      <c r="J11" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="103"/>
       <c r="T11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:20">
@@ -18759,23 +18831,31 @@
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="34" t="s">
+        <v>79</v>
+      </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="38">
+        <v>2</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
+      <c r="J12" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+      <c r="S12" s="103"/>
       <c r="T12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:20">
@@ -18790,16 +18870,16 @@
       <c r="G13" s="39"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
       <c r="T13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:20">
@@ -18814,16 +18894,16 @@
       <c r="G14" s="39"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
       <c r="T14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:20">
@@ -18838,16 +18918,16 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="103"/>
       <c r="T15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:20">
@@ -18862,16 +18942,16 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="103"/>
       <c r="T16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:20">
@@ -18884,21 +18964,21 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
       <c r="T17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:20">
@@ -18914,16 +18994,16 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:20">
       <c r="A19" s="13"/>
@@ -18941,17 +19021,17 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="114"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="106"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="116"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:20">
       <c r="A20" s="13"/>
@@ -18965,17 +19045,17 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="115"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+      <c r="T20" s="117"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:20">
       <c r="A21" s="13"/>
@@ -18989,17 +19069,17 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="115"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="117"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:20">
       <c r="A22" s="13"/>
@@ -19013,17 +19093,17 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="116"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="118"/>
     </row>
     <row r="23" customHeight="1" spans="1:20">
       <c r="A23" s="5"/>
@@ -19186,8 +19266,8 @@
   <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -19218,14 +19298,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="109"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="111"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -19259,7 +19339,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44793</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -19271,16 +19351,16 @@
         <v>32</v>
       </c>
       <c r="I3" s="69">
-        <v>2</v>
-      </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
+        <v>5</v>
+      </c>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -19296,22 +19376,22 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="93"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>73</v>
+      <c r="C5" s="88" t="s">
+        <v>81</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -19319,15 +19399,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="110"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="112"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -19335,7 +19415,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43345</v>
+        <v>43332</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -19343,39 +19423,39 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="111"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="113"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43345</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="112"/>
+      <c r="C7" s="20">
+        <v>43332</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="114"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -19390,14 +19470,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -19417,46 +19497,46 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="113"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="115"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>74</v>
+      <c r="C10" s="89" t="s">
+        <v>82</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>3</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>83</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="103"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="103"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -19471,14 +19551,14 @@
       <c r="G11" s="39"/>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="103"/>
+      <c r="O11" s="103"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="103"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -19493,14 +19573,14 @@
       <c r="G12" s="39"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -19515,14 +19595,14 @@
       <c r="G13" s="39"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -19537,14 +19617,14 @@
       <c r="G14" s="39"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -19559,14 +19639,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="103"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -19581,14 +19661,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="103"/>
+      <c r="O16" s="103"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="103"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -19601,19 +19681,19 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -19629,14 +19709,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -19654,15 +19734,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="114"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="106"/>
+      <c r="N19" s="106"/>
+      <c r="O19" s="106"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="106"/>
+      <c r="R19" s="116"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -19676,15 +19756,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="115"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="108"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="117"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -19698,15 +19778,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="115"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="117"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -19720,15 +19800,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="116"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="118"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>

--- a/LCS-实时通讯软件5组/03.项目文件/个人日报/个人日报 _刘乐也.xlsx
+++ b/LCS-实时通讯软件5组/03.项目文件/个人日报/个人日报 _刘乐也.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9490" windowHeight="6800" tabRatio="747" firstSheet="7" activeTab="10"/>
+    <workbookView windowWidth="18530" windowHeight="6950" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="99">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>对</t>
     </r>
     <r>
@@ -434,6 +440,12 @@
     <t>与组员讨论后，在QT软件上创建相关控件，建立初步的注册界面的控件函数</t>
   </si>
   <si>
+    <t>项目初步调试</t>
+  </si>
+  <si>
+    <t>与组员讨论，并确认调试结果</t>
+  </si>
+  <si>
     <t>项目程序调试</t>
   </si>
   <si>
@@ -443,13 +455,19 @@
     <t>查看网上资料进行改进</t>
   </si>
   <si>
-    <t>否</t>
+    <t>编写项目文档</t>
+  </si>
+  <si>
+    <t>设计服务器UI</t>
+  </si>
+  <si>
+    <t>设计服务器UI界面</t>
   </si>
   <si>
     <t>与其他部分合代码</t>
   </si>
   <si>
-    <t>与UI，客户端，数据库等部分整合代码</t>
+    <t>与其他部分整合代码</t>
   </si>
   <si>
     <t>整合代码并修改bug，完成项目总结</t>
@@ -462,9 +480,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="m/d;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d;@"/>
     <numFmt numFmtId="179" formatCode="m\-d"/>
   </numFmts>
   <fonts count="60">
@@ -564,13 +582,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -712,14 +730,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -734,14 +744,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
@@ -751,9 +753,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -765,24 +767,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,32 +798,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -856,8 +822,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,25 +914,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,37 +956,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,25 +992,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,13 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,31 +1076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,25 +1094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,56 +1908,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1982,6 +1950,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1992,152 +2010,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="67" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="16" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="71" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="28" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="66" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2171,7 +2189,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2396,13 +2414,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13050,7 +13086,7 @@
   <sheetPr/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -13064,18 +13100,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A1" s="176"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="159"/>
+      <c r="A1" s="182"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="134" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="62"/>
@@ -13088,7 +13124,7 @@
       <c r="I2" s="86"/>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="138" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="62"/>
@@ -13101,7 +13137,7 @@
       <c r="I3" s="86"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A4" s="177"/>
+      <c r="A4" s="183"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -13112,7 +13148,7 @@
       <c r="I4" s="86"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A5" s="177"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -13123,7 +13159,7 @@
       <c r="I5" s="86"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A6" s="177"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -13134,7 +13170,7 @@
       <c r="I6" s="86"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A7" s="177"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -13145,7 +13181,7 @@
       <c r="I7" s="86"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A8" s="177"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -13156,7 +13192,7 @@
       <c r="I8" s="86"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A9" s="177"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -13167,7 +13203,7 @@
       <c r="I9" s="86"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A10" s="177"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -13178,7 +13214,7 @@
       <c r="I10" s="86"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A11" s="177"/>
+      <c r="A11" s="183"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -13189,9 +13225,9 @@
       <c r="I11" s="86"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A12" s="177"/>
+      <c r="A12" s="183"/>
       <c r="B12" s="62"/>
-      <c r="C12" s="178"/>
+      <c r="C12" s="184"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -13200,7 +13236,7 @@
       <c r="I12" s="86"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A13" s="177"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -13211,267 +13247,267 @@
       <c r="I13" s="86"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A14" s="179"/>
-      <c r="B14" s="180"/>
-      <c r="C14" s="180"/>
-      <c r="D14" s="180"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="190"/>
+      <c r="A14" s="185"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="196"/>
     </row>
     <row r="15" ht="51.75" customHeight="1" spans="1:9">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="182"/>
-      <c r="G15" s="182"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="191"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="197"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A16" s="183"/>
-      <c r="B16" s="180"/>
-      <c r="C16" s="180"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="190"/>
+      <c r="A16" s="189"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="196"/>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A17" s="184" t="s">
+      <c r="A17" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="180"/>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="190"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="196"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A18" s="142">
+      <c r="A18" s="148">
         <v>44796</v>
       </c>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="190"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="196"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A19" s="179"/>
-      <c r="B19" s="180"/>
-      <c r="C19" s="180"/>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="190"/>
+      <c r="A19" s="185"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="196"/>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A20" s="179"/>
-      <c r="B20" s="180"/>
-      <c r="C20" s="180"/>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="180"/>
-      <c r="I20" s="190"/>
+      <c r="A20" s="185"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="196"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A21" s="179"/>
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="180"/>
-      <c r="I21" s="190"/>
+      <c r="A21" s="185"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="196"/>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A22" s="179"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="180"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="180"/>
-      <c r="I22" s="190"/>
+      <c r="A22" s="185"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="196"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="179"/>
-      <c r="B23" s="180"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="180"/>
-      <c r="I23" s="190"/>
+      <c r="A23" s="185"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="196"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="179"/>
-      <c r="B24" s="180"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="190"/>
+      <c r="A24" s="185"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="196"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="179"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="190"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="196"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="179"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="190"/>
+      <c r="A26" s="185"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="196"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="179"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="190"/>
+      <c r="A27" s="185"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="196"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="179"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="190"/>
+      <c r="A28" s="185"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="196"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="179"/>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="190"/>
+      <c r="A29" s="185"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="196"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="179"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="180"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="190"/>
+      <c r="A30" s="185"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="196"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="179"/>
-      <c r="B31" s="180"/>
-      <c r="C31" s="180"/>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="190"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="196"/>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A32" s="179"/>
-      <c r="B32" s="180"/>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="190"/>
+      <c r="A32" s="185"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="196"/>
     </row>
     <row r="33" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A33" s="185" t="s">
+      <c r="A33" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="190"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="196"/>
     </row>
     <row r="34" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A34" s="186" t="s">
+      <c r="A34" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="180"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="180"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="190"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="196"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="187"/>
-      <c r="B35" s="180"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="190"/>
+      <c r="A35" s="193"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="196"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="188"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="192"/>
+      <c r="A36" s="194"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13496,7 +13532,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:I11"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -13587,7 +13623,7 @@
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="91" t="s">
         <v>84</v>
       </c>
       <c r="D5" s="18"/>
@@ -13671,7 +13707,7 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="92" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="34"/>
@@ -13679,7 +13715,7 @@
       <c r="F10" s="35">
         <v>3</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="93" t="s">
         <v>85</v>
       </c>
       <c r="H10" s="37"/>
@@ -13693,7 +13729,7 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="92" t="s">
         <v>86</v>
       </c>
       <c r="D11" s="34"/>
@@ -13701,7 +13737,7 @@
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="93" t="s">
         <v>87</v>
       </c>
       <c r="H11" s="37"/>
@@ -13715,14 +13751,22 @@
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="94" t="s">
+        <v>88</v>
+      </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="79"/>
+      <c r="F12" s="38">
+        <v>1</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="90" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:10">
       <c r="A13" s="13"/>
@@ -13790,7 +13834,7 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
@@ -13982,8 +14026,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -14039,7 +14083,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44795</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -14074,8 +14118,8 @@
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="88" t="s">
-        <v>88</v>
+      <c r="C5" s="91" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -14158,21 +14202,21 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="89" t="s">
-        <v>89</v>
+      <c r="C10" s="92" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
         <v>5</v>
       </c>
-      <c r="G10" s="90" t="s">
-        <v>90</v>
+      <c r="G10" s="93" t="s">
+        <v>92</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="78" t="s">
-        <v>91</v>
+      <c r="J10" s="89" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:10">
@@ -14180,28 +14224,44 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>93</v>
+      </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>93</v>
+      </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="79"/>
+      <c r="J11" s="90" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:10">
       <c r="A12" s="13"/>
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="38">
+        <v>2</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>95</v>
+      </c>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="79"/>
+      <c r="J12" s="90" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:10">
       <c r="A13" s="13"/>
@@ -14269,7 +14329,7 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
@@ -14462,7 +14522,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -14518,7 +14578,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44796</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -14554,7 +14614,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -14570,7 +14630,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43348</v>
+        <v>43335</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -14585,16 +14645,16 @@
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43348</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="74"/>
+      <c r="C7" s="20">
+        <v>43335</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:10">
       <c r="A8" s="13"/>
@@ -14638,7 +14698,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -14646,12 +14706,12 @@
         <v>7</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="78" t="s">
-        <v>91</v>
+      <c r="J10" s="89" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:10">
@@ -14659,14 +14719,22 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>93</v>
+      </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="38">
+        <v>5</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>93</v>
+      </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="79"/>
+      <c r="J11" s="90" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:10">
       <c r="A12" s="13"/>
@@ -14748,7 +14816,7 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
@@ -14940,8 +15008,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -14997,7 +15065,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44797</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -15033,7 +15101,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -15049,7 +15117,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43349</v>
+        <v>44797</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -15065,7 +15133,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="23">
-        <v>43349</v>
+        <v>44797</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -15117,7 +15185,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -15125,7 +15193,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
@@ -15434,169 +15502,169 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:5">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="164"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="170"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:5">
-      <c r="A2" s="165"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
       <c r="E2" s="86"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:5">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="161"/>
+      <c r="E3" s="167"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="168">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="151" t="s">
+      <c r="C4" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="170">
+      <c r="D4" s="176">
         <v>44788</v>
       </c>
-      <c r="E4" s="161"/>
+      <c r="E4" s="167"/>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:5">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="161"/>
+      <c r="A5" s="177"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="167"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:5">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="161"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="167"/>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:5">
-      <c r="A7" s="171"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="161"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="167"/>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:5">
-      <c r="A8" s="171"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="161"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="167"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:5">
-      <c r="A9" s="171"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="161"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="167"/>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:5">
-      <c r="A10" s="171"/>
-      <c r="B10" s="171"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="161"/>
+      <c r="A10" s="177"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="167"/>
     </row>
     <row r="11" ht="17" customHeight="1" spans="1:5">
-      <c r="A11" s="171"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="172"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="161"/>
+      <c r="A11" s="177"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="167"/>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:5">
-      <c r="A12" s="171"/>
-      <c r="B12" s="171"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="161"/>
+      <c r="A12" s="177"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" ht="17" customHeight="1" spans="1:5">
-      <c r="A13" s="171"/>
-      <c r="B13" s="171"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="161"/>
+      <c r="A13" s="177"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="167"/>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:5">
-      <c r="A14" s="171"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="161"/>
+      <c r="A14" s="177"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="167"/>
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:5">
-      <c r="A15" s="171"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="161"/>
+      <c r="A15" s="177"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="167"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:5">
-      <c r="A16" s="171"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="161"/>
+      <c r="A16" s="177"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="167"/>
     </row>
     <row r="17" ht="17" customHeight="1" spans="1:5">
-      <c r="A17" s="171"/>
-      <c r="B17" s="171"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="161"/>
+      <c r="A17" s="177"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="167"/>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:5">
-      <c r="A18" s="171"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="161"/>
+      <c r="A18" s="177"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="167"/>
     </row>
     <row r="19" ht="17.45" customHeight="1" spans="1:5">
-      <c r="A19" s="171"/>
-      <c r="B19" s="171"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="161"/>
+      <c r="A19" s="177"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="167"/>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:5">
-      <c r="A20" s="171"/>
-      <c r="B20" s="171"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="161"/>
+      <c r="A20" s="177"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="167"/>
     </row>
     <row r="21" ht="17" customHeight="1" spans="1:5">
-      <c r="A21" s="171"/>
-      <c r="B21" s="171"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="175"/>
+      <c r="A21" s="177"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15631,18 +15699,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A1" s="126"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="159"/>
+      <c r="A1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="134" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="62"/>
@@ -15655,20 +15723,20 @@
       <c r="I2" s="86"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="160"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="166"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="138" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="62"/>
@@ -15681,7 +15749,7 @@
       <c r="I4" s="86"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A5" s="133"/>
+      <c r="A5" s="139"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -15692,7 +15760,7 @@
       <c r="I5" s="86"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A6" s="133"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -15703,7 +15771,7 @@
       <c r="I6" s="86"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A7" s="133"/>
+      <c r="A7" s="139"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -15714,7 +15782,7 @@
       <c r="I7" s="86"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A8" s="133"/>
+      <c r="A8" s="139"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -15725,7 +15793,7 @@
       <c r="I8" s="86"/>
     </row>
     <row r="9" ht="9.75" customHeight="1" spans="1:9">
-      <c r="A9" s="133"/>
+      <c r="A9" s="139"/>
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -15736,7 +15804,7 @@
       <c r="I9" s="86"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A10" s="133"/>
+      <c r="A10" s="139"/>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -15747,7 +15815,7 @@
       <c r="I10" s="86"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A11" s="133"/>
+      <c r="A11" s="139"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -15758,7 +15826,7 @@
       <c r="I11" s="86"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A12" s="133"/>
+      <c r="A12" s="139"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
@@ -15769,7 +15837,7 @@
       <c r="I12" s="86"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A13" s="133"/>
+      <c r="A13" s="139"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -15780,7 +15848,7 @@
       <c r="I13" s="86"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A14" s="133"/>
+      <c r="A14" s="139"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -15791,284 +15859,284 @@
       <c r="I14" s="86"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A15" s="134"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="86"/>
     </row>
     <row r="16" ht="53" customHeight="1" spans="1:9">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="137"/>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
       <c r="I16" s="86"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="138"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="86"/>
     </row>
     <row r="18" ht="53.25" customHeight="1" spans="1:9">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="135"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
       <c r="I18" s="86"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A19" s="134"/>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
       <c r="I19" s="86"/>
     </row>
     <row r="20" ht="45.75" customHeight="1" spans="1:9">
-      <c r="A20" s="141"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
       <c r="I20" s="86"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A21" s="142"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="135"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
       <c r="I21" s="86"/>
     </row>
     <row r="22" ht="22.15" customHeight="1" spans="1:9">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
       <c r="I22" s="86"/>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A23" s="134"/>
-      <c r="B23" s="135"/>
-      <c r="C23" s="135"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
       <c r="I23" s="86"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="134"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
       <c r="I24" s="86"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="134"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
       <c r="I25" s="86"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="134"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
       <c r="I26" s="86"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="134"/>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
       <c r="I27" s="86"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="134"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
       <c r="I28" s="86"/>
     </row>
     <row r="29" ht="22.15" customHeight="1" spans="1:9">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
       <c r="I29" s="86"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="138"/>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="130"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
       <c r="I30" s="86"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="138"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
       <c r="I31" s="86"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="147"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
+      <c r="A32" s="153"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
       <c r="I32" s="86"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:9">
-      <c r="A33" s="149" t="s">
+      <c r="A33" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="150">
+      <c r="B33" s="156">
         <v>10</v>
       </c>
-      <c r="C33" s="149" t="s">
+      <c r="C33" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="156">
         <v>10</v>
       </c>
-      <c r="E33" s="149" t="s">
+      <c r="E33" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="150">
+      <c r="F33" s="156">
         <v>0</v>
       </c>
-      <c r="G33" s="151" t="s">
+      <c r="G33" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="152">
+      <c r="H33" s="158">
         <v>44788</v>
       </c>
-      <c r="I33" s="161"/>
+      <c r="I33" s="167"/>
     </row>
     <row r="34" ht="29.25" customHeight="1" spans="1:9">
-      <c r="A34" s="149" t="s">
+      <c r="A34" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="153"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="149" t="s">
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="161"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="167"/>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A35" s="154"/>
-      <c r="B35" s="155"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="155"/>
-      <c r="H35" s="155"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="161"/>
       <c r="I35" s="86"/>
     </row>
     <row r="36" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A36" s="156"/>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
       <c r="I36" s="86"/>
     </row>
     <row r="37" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A37" s="157"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
       <c r="I37" s="87"/>
     </row>
   </sheetData>
@@ -16126,14 +16194,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="111"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="117"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -16157,10 +16225,10 @@
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:18">
       <c r="A3" s="5"/>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="125" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -16181,14 +16249,14 @@
       <c r="I3" s="69">
         <v>5</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -16204,14 +16272,14 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
@@ -16227,15 +16295,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="112"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="118"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -16251,15 +16319,15 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="113"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="119"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
@@ -16275,15 +16343,15 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="114"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="120"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -16298,14 +16366,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -16325,17 +16393,17 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="100" t="s">
+      <c r="J9" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="115"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="121"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
@@ -16350,21 +16418,21 @@
       <c r="F10" s="35">
         <v>5</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="93" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="102" t="s">
+      <c r="J10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -16377,24 +16445,24 @@
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="122">
+      <c r="F11" s="128">
         <v>2</v>
       </c>
-      <c r="G11" s="123" t="s">
+      <c r="G11" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="102" t="s">
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -16409,14 +16477,14 @@
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -16431,14 +16499,14 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -16453,14 +16521,14 @@
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -16475,14 +16543,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -16497,14 +16565,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -16522,14 +16590,14 @@
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -16545,14 +16613,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -16570,15 +16638,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="116"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="122"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -16592,15 +16660,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="117"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="123"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -16614,15 +16682,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="117"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="123"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -16636,15 +16704,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="118"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="124"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>
@@ -16829,14 +16897,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="111"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="117"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -16863,7 +16931,7 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="125" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -16884,14 +16952,14 @@
       <c r="I3" s="69">
         <v>2</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -16907,14 +16975,14 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
@@ -16930,15 +16998,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="112"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="118"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -16954,15 +17022,15 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="113"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="119"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
@@ -16978,15 +17046,15 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="114"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="120"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -17001,14 +17069,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -17028,17 +17096,17 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="100" t="s">
+      <c r="J9" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="115"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="121"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
@@ -17058,16 +17126,16 @@
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="102" t="s">
+      <c r="J10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -17083,21 +17151,21 @@
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="93" t="s">
         <v>58</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="102" t="s">
+      <c r="J11" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -17112,16 +17180,16 @@
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="102" t="s">
+      <c r="J12" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -17133,17 +17201,17 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="90"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -17158,14 +17226,14 @@
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -17180,14 +17248,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -17202,14 +17270,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -17227,14 +17295,14 @@
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -17250,14 +17318,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -17275,15 +17343,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="116"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="122"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -17297,15 +17365,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="117"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="123"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -17319,15 +17387,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="117"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="123"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -17341,15 +17409,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="118"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="124"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>
@@ -17502,7 +17570,7 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:J11"/>
     </sheetView>
   </sheetViews>
@@ -17552,7 +17620,7 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="125" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -17989,7 +18057,7 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:J14"/>
     </sheetView>
   </sheetViews>
@@ -18501,7 +18569,7 @@
   <sheetPr/>
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -18533,16 +18601,16 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="111"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="117"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:20">
       <c r="A2" s="5"/>
@@ -18592,16 +18660,16 @@
       <c r="I3" s="69">
         <v>2</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
-      <c r="R3" s="92"/>
-      <c r="S3" s="92"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
       <c r="T3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:20">
@@ -18617,16 +18685,16 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:20">
       <c r="A5" s="13"/>
@@ -18642,17 +18710,17 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="112"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="118"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:20">
       <c r="A6" s="13"/>
@@ -18668,17 +18736,17 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
-      <c r="S6" s="97"/>
-      <c r="T6" s="113"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="119"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:20">
       <c r="A7" s="13"/>
@@ -18694,17 +18762,17 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="114"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="120"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:20">
       <c r="A8" s="13"/>
@@ -18719,16 +18787,16 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:20">
       <c r="A9" s="13"/>
@@ -18748,19 +18816,19 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="100" t="s">
+      <c r="J9" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="115"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="121"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:20">
       <c r="A10" s="13"/>
@@ -18780,18 +18848,18 @@
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="102" t="s">
+      <c r="J10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
       <c r="T10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:20">
@@ -18812,18 +18880,18 @@
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="103" t="s">
+      <c r="J11" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="103"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
       <c r="T11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:20">
@@ -18844,18 +18912,18 @@
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="103" t="s">
+      <c r="J12" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
       <c r="T12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:20">
@@ -18870,16 +18938,16 @@
       <c r="G13" s="39"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
-      <c r="R13" s="103"/>
-      <c r="S13" s="103"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
       <c r="T13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:20">
@@ -18894,16 +18962,16 @@
       <c r="G14" s="39"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
       <c r="T14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:20">
@@ -18918,16 +18986,16 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
-      <c r="R15" s="103"/>
-      <c r="S15" s="103"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
       <c r="T15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:20">
@@ -18942,16 +19010,16 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
-      <c r="R16" s="103"/>
-      <c r="S16" s="103"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
       <c r="T16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:20">
@@ -18969,16 +19037,16 @@
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
-      <c r="S17" s="104"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
       <c r="T17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:20">
@@ -18994,16 +19062,16 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:20">
       <c r="A19" s="13"/>
@@ -19021,17 +19089,17 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="106"/>
-      <c r="T19" s="116"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="122"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:20">
       <c r="A20" s="13"/>
@@ -19045,17 +19113,17 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="117"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="123"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:20">
       <c r="A21" s="13"/>
@@ -19069,17 +19137,17 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="108"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="117"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="123"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:20">
       <c r="A22" s="13"/>
@@ -19093,17 +19161,17 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="118"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="124"/>
     </row>
     <row r="23" customHeight="1" spans="1:20">
       <c r="A23" s="5"/>
@@ -19266,7 +19334,7 @@
   <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -19298,14 +19366,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="111"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="117"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -19353,14 +19421,14 @@
       <c r="I3" s="69">
         <v>5</v>
       </c>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="92"/>
-      <c r="N3" s="92"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="92"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -19376,21 +19444,21 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="91" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="18"/>
@@ -19399,15 +19467,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="112"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="118"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -19423,15 +19491,15 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="113"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="119"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
@@ -19447,15 +19515,15 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="114"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="120"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -19470,14 +19538,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -19497,24 +19565,24 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="100" t="s">
+      <c r="J9" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="115"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="121"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="92" t="s">
         <v>82</v>
       </c>
       <c r="D10" s="34"/>
@@ -19522,21 +19590,21 @@
       <c r="F10" s="35">
         <v>5</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="93" t="s">
         <v>83</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="102" t="s">
+      <c r="J10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="103"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -19551,14 +19619,14 @@
       <c r="G11" s="39"/>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="103"/>
-      <c r="O11" s="103"/>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="103"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -19573,14 +19641,14 @@
       <c r="G12" s="39"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -19595,14 +19663,14 @@
       <c r="G13" s="39"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="103"/>
-      <c r="Q13" s="103"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -19617,14 +19685,14 @@
       <c r="G14" s="39"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -19639,14 +19707,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="103"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -19661,14 +19729,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="103"/>
-      <c r="Q16" s="103"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -19686,14 +19754,14 @@
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -19709,14 +19777,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -19734,15 +19802,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="106"/>
-      <c r="O19" s="106"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="116"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="122"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -19756,15 +19824,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="117"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="123"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -19778,15 +19846,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="108"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="108"/>
-      <c r="N21" s="108"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="108"/>
-      <c r="R21" s="117"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="123"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -19800,15 +19868,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="110"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="118"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="124"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>

--- a/LCS-实时通讯软件5组/03.项目文件/个人日报/个人日报 _刘乐也.xlsx
+++ b/LCS-实时通讯软件5组/03.项目文件/个人日报/个人日报 _刘乐也.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6950" tabRatio="747" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="18530" windowHeight="6950" tabRatio="747"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="99">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -93,7 +93,7 @@
     <t>文档编号：D0000-PPC-5-IDR-2022</t>
   </si>
   <si>
-    <t>LCS（5）</t>
+    <t>LCS实时通讯软件（5）</t>
   </si>
   <si>
     <t>个人日报</t>
@@ -189,7 +189,7 @@
     <t>项目名称:</t>
   </si>
   <si>
-    <t>LCS</t>
+    <t>LCS实时通讯软件</t>
   </si>
   <si>
     <t>小组编号：</t>
@@ -219,7 +219,7 @@
     <t>关键任务</t>
   </si>
   <si>
-    <t>听老师讲课，了解Linux以及虚拟机的安装</t>
+    <t>听老师讲课，了解GT Creator的安装步骤以及一些基本的QT代码</t>
   </si>
   <si>
     <t>计划日期</t>
@@ -267,16 +267,42 @@
     <t>听老师讲课</t>
   </si>
   <si>
-    <t>对Qt的基本操作方式有了一定认识</t>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以及虚拟机有了一定了解</t>
+    </r>
   </si>
   <si>
     <t>是</t>
   </si>
   <si>
-    <t>跟随老师进行槽函数和UI界面的练习</t>
+    <t>安装Qt</t>
   </si>
   <si>
-    <t>对于槽函数的构建和UI的连接有了一定认识</t>
+    <t>Ubuntu系统上安装了Qt</t>
   </si>
   <si>
     <t>合计</t>
@@ -318,152 +344,130 @@
     <t>听老师讲课，熟悉Qt的使用</t>
   </si>
   <si>
-    <r>
-      <t>对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Linux</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以及虚拟机有了一定了解</t>
-    </r>
+    <t>对Qt的基本操作方法渐渐熟悉</t>
   </si>
   <si>
-    <t>安装虚拟机</t>
+    <t>跟随老师进行信号与槽函数的练习</t>
   </si>
   <si>
-    <r>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>VMware</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上安装了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ubuntu18.04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统</t>
-    </r>
+    <t>对于信号与槽函数的构建有了一定认识</t>
   </si>
   <si>
-    <t>安装Qt</t>
+    <t>学习Event事件</t>
   </si>
   <si>
-    <t>Ubuntu系统上安装了Qt</t>
+    <t>了解Event的基本知识</t>
   </si>
   <si>
-    <t>分配任务，学习通信</t>
+    <t>跟随老师进行Event事件的练习</t>
   </si>
   <si>
-    <t>初步学习Socket通信</t>
-  </si>
-  <si>
-    <t>上网找教程另外自己动手实验</t>
-  </si>
-  <si>
-    <t>初步编写socket通信服务器端代码</t>
-  </si>
-  <si>
-    <t>仿照网上教程，编写自己的socket通信，包括侦听，接受，连接，数据交换</t>
+    <t>懂得如何使用Event</t>
   </si>
   <si>
     <t>尝试与客户端进行socket通信</t>
   </si>
   <si>
-    <t>尝试在校园网环境下与客户端进行socket通信，未成功</t>
+    <t>学习文件操作</t>
   </si>
   <si>
-    <t>否</t>
+    <t>了解文件操作的基本知识</t>
   </si>
   <si>
-    <t>发现校园网环境不符合之后，改为手机热点进行连接</t>
+    <t>跟随老师完成文件操作的练习</t>
   </si>
   <si>
-    <t>服务器与客户端连在同一个手机热点下进行socket通信，成功</t>
+    <t>对文件操作越来越熟练</t>
   </si>
   <si>
-    <t>进行socket通信代码的完善，封装成可以调用的类</t>
+    <t>学习Socket通信</t>
   </si>
   <si>
-    <t>尝试将服务器端的socket通信函数封装成类</t>
+    <t>了解Socket的基本知识</t>
   </si>
   <si>
-    <t>初步设计文档的编写</t>
+    <t>跟随老师完成Socket通信的练习</t>
   </si>
   <si>
-    <t>完成设计文档的内容撰写</t>
+    <t>对Socket通信有初步的了解</t>
   </si>
   <si>
-    <t>将邮件系统的整体概要设计落实到文档中</t>
+    <t>项目分配任务</t>
   </si>
   <si>
-    <t>继续将socket通信封装成类，并尝试构建底层的收发邮件逻辑</t>
+    <t>和组员们讨论要制作的项目以及分配任务</t>
   </si>
   <si>
-    <t>继续将socket通信封装成类</t>
+    <t>继续学习Socket通信，以及开始学习连接数据库</t>
   </si>
   <si>
-    <t>重新思考收发邮件的过程，并依此设计socket类</t>
+    <t>继续学习Socket通信</t>
   </si>
   <si>
-    <t>尝试设计底层的收发邮件逻辑</t>
+    <t>完成Socket通信的练习</t>
   </si>
   <si>
-    <t>与组内其他成员讨论并确定底层逻辑，尝试实现</t>
+    <t>学习关于数据库</t>
   </si>
   <si>
-    <t>尝试实现多线程</t>
+    <t>了解数据库和连接方法的基本知识</t>
   </si>
   <si>
-    <t>尝试实现socket服务器多线程</t>
+    <t>学习连接数据库</t>
   </si>
   <si>
-    <t>寻找网上例子并学习</t>
+    <t>对连接数据库有一定的了解</t>
+  </si>
+  <si>
+    <t>初步登录界面的编译</t>
+  </si>
+  <si>
+    <t>设计登录界面的控件</t>
+  </si>
+  <si>
+    <t>与组员讨论后，在QT软件上创建相关控件，建立初步的登录界面的控件函数</t>
+  </si>
+  <si>
+    <t>设计登录与注册界面的控件</t>
+  </si>
+  <si>
+    <t>对已设计好的登录控件进行调试，并修改</t>
+  </si>
+  <si>
+    <t>设计注册界面的控件</t>
+  </si>
+  <si>
+    <t>与组员讨论后，在QT软件上创建相关控件，建立初步的注册界面的控件函数</t>
+  </si>
+  <si>
+    <t>项目初步调试</t>
+  </si>
+  <si>
+    <t>与组员讨论，并确认调试结果</t>
+  </si>
+  <si>
+    <t>项目程序调试</t>
+  </si>
+  <si>
+    <t>对注册与登录控件的最终调试</t>
+  </si>
+  <si>
+    <t>查看网上资料进行改进</t>
+  </si>
+  <si>
+    <t>编写项目文档</t>
+  </si>
+  <si>
+    <t>设计服务器UI</t>
+  </si>
+  <si>
+    <t>设计服务器UI界面</t>
   </si>
   <si>
     <t>与其他部分合代码</t>
   </si>
   <si>
-    <t>与UI，客户端，数据库等部分整合代码</t>
+    <t>与其他部分整合代码</t>
   </si>
   <si>
     <t>整合代码并修改bug，完成项目总结</t>
@@ -475,13 +479,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -578,13 +582,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -721,23 +731,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,7 +745,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,14 +762,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,6 +791,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -827,6 +822,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
@@ -842,7 +845,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -850,7 +853,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,9 +874,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,19 +914,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,43 +956,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +992,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,13 +1022,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,13 +1034,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,13 +1064,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1076,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,36 +1088,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1666,19 +1676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -1799,6 +1796,63 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="hair">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
@@ -1830,15 +1884,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -1859,30 +1904,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1926,6 +1947,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1943,15 +1973,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1960,157 +1981,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="67" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="24" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="23" borderId="71" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="23" borderId="69" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="72" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="70" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="66" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="22" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="15" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="15" borderId="67" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="68" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="69" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2369,6 +2414,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2390,13 +2462,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2429,219 +2498,229 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="31" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="32" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13007,7 +13086,7 @@
   <sheetPr/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -13021,18 +13100,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A1" s="170"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="153"/>
+      <c r="A1" s="182"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="134" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="62"/>
@@ -13045,7 +13124,7 @@
       <c r="I2" s="86"/>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="138" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="62"/>
@@ -13058,7 +13137,7 @@
       <c r="I3" s="86"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A4" s="171"/>
+      <c r="A4" s="183"/>
       <c r="B4" s="62"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -13069,7 +13148,7 @@
       <c r="I4" s="86"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A5" s="171"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -13080,7 +13159,7 @@
       <c r="I5" s="86"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A6" s="171"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -13091,7 +13170,7 @@
       <c r="I6" s="86"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A7" s="171"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -13102,7 +13181,7 @@
       <c r="I7" s="86"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A8" s="171"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -13113,7 +13192,7 @@
       <c r="I8" s="86"/>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A9" s="171"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -13124,7 +13203,7 @@
       <c r="I9" s="86"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A10" s="171"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -13135,7 +13214,7 @@
       <c r="I10" s="86"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A11" s="171"/>
+      <c r="A11" s="183"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -13146,9 +13225,9 @@
       <c r="I11" s="86"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A12" s="171"/>
+      <c r="A12" s="183"/>
       <c r="B12" s="62"/>
-      <c r="C12" s="172"/>
+      <c r="C12" s="184"/>
       <c r="D12" s="62"/>
       <c r="E12" s="62"/>
       <c r="F12" s="62"/>
@@ -13157,7 +13236,7 @@
       <c r="I12" s="86"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A13" s="171"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -13168,267 +13247,267 @@
       <c r="I13" s="86"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A14" s="173"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="174"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="184"/>
+      <c r="A14" s="185"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186"/>
+      <c r="E14" s="186"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="186"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="196"/>
     </row>
     <row r="15" ht="51.75" customHeight="1" spans="1:9">
-      <c r="A15" s="175" t="s">
+      <c r="A15" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="185"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="188"/>
+      <c r="H15" s="188"/>
+      <c r="I15" s="197"/>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A16" s="177"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="174"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="184"/>
+      <c r="A16" s="189"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="196"/>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="190" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="184"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="196"/>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A18" s="136">
+      <c r="A18" s="148">
         <v>44796</v>
       </c>
-      <c r="B18" s="174"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="174"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="184"/>
+      <c r="B18" s="186"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="186"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="196"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A19" s="173"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="174"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="184"/>
+      <c r="A19" s="185"/>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="196"/>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A20" s="173"/>
-      <c r="B20" s="174"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="184"/>
+      <c r="A20" s="185"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="196"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A21" s="173"/>
-      <c r="B21" s="174"/>
-      <c r="C21" s="174"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="184"/>
+      <c r="A21" s="185"/>
+      <c r="B21" s="186"/>
+      <c r="C21" s="186"/>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="196"/>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A22" s="173"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="184"/>
+      <c r="A22" s="185"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="196"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:9">
-      <c r="A23" s="173"/>
-      <c r="B23" s="174"/>
-      <c r="C23" s="174"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="184"/>
+      <c r="A23" s="185"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="186"/>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="196"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="173"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="184"/>
+      <c r="A24" s="185"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="196"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="173"/>
-      <c r="B25" s="174"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="184"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="196"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="173"/>
-      <c r="B26" s="174"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="174"/>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="184"/>
+      <c r="A26" s="185"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="196"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="173"/>
-      <c r="B27" s="174"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="174"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="184"/>
+      <c r="A27" s="185"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="196"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="173"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="174"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="184"/>
+      <c r="A28" s="185"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="196"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:9">
-      <c r="A29" s="173"/>
-      <c r="B29" s="174"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="174"/>
-      <c r="F29" s="174"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="184"/>
+      <c r="A29" s="185"/>
+      <c r="B29" s="186"/>
+      <c r="C29" s="186"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="196"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:9">
-      <c r="A30" s="173"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="184"/>
+      <c r="A30" s="185"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="196"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:9">
-      <c r="A31" s="173"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="184"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="196"/>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A32" s="173"/>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="184"/>
+      <c r="A32" s="185"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="196"/>
     </row>
     <row r="33" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="174"/>
-      <c r="F33" s="174"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="184"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="196"/>
     </row>
     <row r="34" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A34" s="180" t="s">
+      <c r="A34" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="174"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="174"/>
-      <c r="F34" s="174"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="184"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="186"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="196"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="181"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="174"/>
-      <c r="E35" s="174"/>
-      <c r="F35" s="174"/>
-      <c r="G35" s="174"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="184"/>
+      <c r="A35" s="193"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="196"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="182"/>
-      <c r="B36" s="183"/>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="186"/>
+      <c r="A36" s="194"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13453,7 +13532,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -13509,7 +13588,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44794</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -13521,7 +13600,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="70"/>
     </row>
@@ -13544,8 +13623,8 @@
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>76</v>
+      <c r="C5" s="91" t="s">
+        <v>84</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -13561,7 +13640,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43346</v>
+        <v>43333</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -13576,16 +13655,16 @@
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43346</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="74"/>
+      <c r="C7" s="20">
+        <v>43333</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:10">
       <c r="A8" s="13"/>
@@ -13628,16 +13707,16 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>77</v>
+      <c r="C10" s="92" t="s">
+        <v>82</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>4</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>78</v>
+        <v>3</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>85</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
@@ -13650,16 +13729,16 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>79</v>
+      <c r="C11" s="92" t="s">
+        <v>86</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="35">
         <v>3</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>80</v>
+      <c r="G11" s="93" t="s">
+        <v>87</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
@@ -13672,14 +13751,22 @@
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="94" t="s">
+        <v>88</v>
+      </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="79"/>
+      <c r="F12" s="38">
+        <v>1</v>
+      </c>
+      <c r="G12" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="90" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:10">
       <c r="A13" s="13"/>
@@ -13940,7 +14027,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G12" sqref="G12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -13996,7 +14083,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44795</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -14031,8 +14118,8 @@
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>81</v>
+      <c r="C5" s="91" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -14048,7 +14135,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43347</v>
+        <v>43334</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -14063,16 +14150,16 @@
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43347</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="74"/>
+      <c r="C7" s="20">
+        <v>43334</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:10">
       <c r="A8" s="13"/>
@@ -14115,21 +14202,21 @@
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>82</v>
+      <c r="C10" s="92" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
         <v>5</v>
       </c>
-      <c r="G10" s="36" t="s">
-        <v>83</v>
+      <c r="G10" s="93" t="s">
+        <v>92</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="78" t="s">
-        <v>68</v>
+      <c r="J10" s="89" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:10">
@@ -14137,28 +14224,44 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>93</v>
+      </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="38">
+        <v>3</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>93</v>
+      </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="79"/>
+      <c r="J11" s="90" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:10">
       <c r="A12" s="13"/>
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="38">
+        <v>2</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>95</v>
+      </c>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="79"/>
+      <c r="J12" s="90" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:10">
       <c r="A13" s="13"/>
@@ -14226,7 +14329,7 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
@@ -14419,7 +14522,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -14475,7 +14578,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44796</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -14511,7 +14614,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -14527,7 +14630,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43348</v>
+        <v>43335</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -14542,16 +14645,16 @@
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43348</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="74"/>
+      <c r="C7" s="20">
+        <v>43335</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:10">
       <c r="A8" s="13"/>
@@ -14595,7 +14698,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -14603,12 +14706,12 @@
         <v>7</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="78" t="s">
-        <v>68</v>
+      <c r="J10" s="89" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:10">
@@ -14616,14 +14719,22 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>93</v>
+      </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="38">
+        <v>5</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>93</v>
+      </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="79"/>
+      <c r="J11" s="90" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:10">
       <c r="A12" s="13"/>
@@ -14705,7 +14816,7 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
@@ -14898,7 +15009,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C10" sqref="C10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -14954,7 +15065,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44797</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -14990,7 +15101,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -15006,7 +15117,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43349</v>
+        <v>44797</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -15022,7 +15133,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="23">
-        <v>43349</v>
+        <v>44797</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -15074,7 +15185,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -15082,7 +15193,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
@@ -15391,169 +15502,169 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" customHeight="1" spans="1:5">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="158"/>
+      <c r="B1" s="169"/>
+      <c r="C1" s="169"/>
+      <c r="D1" s="169"/>
+      <c r="E1" s="170"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:5">
-      <c r="A2" s="159"/>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
+      <c r="A2" s="171"/>
+      <c r="B2" s="172"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
       <c r="E2" s="86"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:5">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D3" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="155"/>
+      <c r="E3" s="167"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:5">
-      <c r="A4" s="162">
+      <c r="A4" s="174">
         <v>1</v>
       </c>
-      <c r="B4" s="163" t="s">
+      <c r="B4" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="164">
+      <c r="D4" s="176">
         <v>44788</v>
       </c>
-      <c r="E4" s="155"/>
+      <c r="E4" s="167"/>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:5">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="155"/>
+      <c r="A5" s="177"/>
+      <c r="B5" s="177"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="176"/>
+      <c r="E5" s="167"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:5">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="155"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="167"/>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:5">
-      <c r="A7" s="165"/>
-      <c r="B7" s="165"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="155"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="167"/>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:5">
-      <c r="A8" s="165"/>
-      <c r="B8" s="165"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="155"/>
+      <c r="A8" s="177"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="167"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:5">
-      <c r="A9" s="165"/>
-      <c r="B9" s="165"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="155"/>
+      <c r="A9" s="177"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="167"/>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:5">
-      <c r="A10" s="165"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="155"/>
+      <c r="A10" s="177"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="167"/>
     </row>
     <row r="11" ht="17" customHeight="1" spans="1:5">
-      <c r="A11" s="165"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="155"/>
+      <c r="A11" s="177"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="167"/>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:5">
-      <c r="A12" s="165"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="155"/>
+      <c r="A12" s="177"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" ht="17" customHeight="1" spans="1:5">
-      <c r="A13" s="165"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="155"/>
+      <c r="A13" s="177"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="167"/>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:5">
-      <c r="A14" s="165"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="155"/>
+      <c r="A14" s="177"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="167"/>
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:5">
-      <c r="A15" s="165"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="155"/>
+      <c r="A15" s="177"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="167"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:5">
-      <c r="A16" s="165"/>
-      <c r="B16" s="165"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="164"/>
-      <c r="E16" s="155"/>
+      <c r="A16" s="177"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="167"/>
     </row>
     <row r="17" ht="17" customHeight="1" spans="1:5">
-      <c r="A17" s="165"/>
-      <c r="B17" s="165"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="155"/>
+      <c r="A17" s="177"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="178"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="167"/>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:5">
-      <c r="A18" s="165"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="155"/>
+      <c r="A18" s="177"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="178"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="167"/>
     </row>
     <row r="19" ht="17.45" customHeight="1" spans="1:5">
-      <c r="A19" s="165"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="155"/>
+      <c r="A19" s="177"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="167"/>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:5">
-      <c r="A20" s="165"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="155"/>
+      <c r="A20" s="177"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="167"/>
     </row>
     <row r="21" ht="17" customHeight="1" spans="1:5">
-      <c r="A21" s="165"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="169"/>
+      <c r="A21" s="177"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15572,8 +15683,8 @@
   <sheetPr/>
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15.75" customHeight="1"/>
@@ -15588,18 +15699,18 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A1" s="120"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="153"/>
+      <c r="A1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="134" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="62"/>
@@ -15612,20 +15723,20 @@
       <c r="I2" s="86"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="124"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="154"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="166"/>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="138" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="62"/>
@@ -15638,7 +15749,7 @@
       <c r="I4" s="86"/>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A5" s="127"/>
+      <c r="A5" s="139"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -15649,7 +15760,7 @@
       <c r="I5" s="86"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A6" s="127"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -15660,7 +15771,7 @@
       <c r="I6" s="86"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A7" s="127"/>
+      <c r="A7" s="139"/>
       <c r="B7" s="62"/>
       <c r="C7" s="62"/>
       <c r="D7" s="62"/>
@@ -15671,7 +15782,7 @@
       <c r="I7" s="86"/>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A8" s="127"/>
+      <c r="A8" s="139"/>
       <c r="B8" s="62"/>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -15682,7 +15793,7 @@
       <c r="I8" s="86"/>
     </row>
     <row r="9" ht="9.75" customHeight="1" spans="1:9">
-      <c r="A9" s="127"/>
+      <c r="A9" s="139"/>
       <c r="B9" s="62"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -15693,7 +15804,7 @@
       <c r="I9" s="86"/>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A10" s="127"/>
+      <c r="A10" s="139"/>
       <c r="B10" s="62"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -15704,7 +15815,7 @@
       <c r="I10" s="86"/>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A11" s="127"/>
+      <c r="A11" s="139"/>
       <c r="B11" s="62"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -15715,7 +15826,7 @@
       <c r="I11" s="86"/>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A12" s="127"/>
+      <c r="A12" s="139"/>
       <c r="B12" s="62"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
@@ -15726,7 +15837,7 @@
       <c r="I12" s="86"/>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A13" s="127"/>
+      <c r="A13" s="139"/>
       <c r="B13" s="62"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -15737,7 +15848,7 @@
       <c r="I13" s="86"/>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A14" s="127"/>
+      <c r="A14" s="139"/>
       <c r="B14" s="62"/>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
@@ -15748,282 +15859,284 @@
       <c r="I14" s="86"/>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A15" s="128"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
+      <c r="A15" s="140"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
       <c r="I15" s="86"/>
     </row>
     <row r="16" ht="53" customHeight="1" spans="1:9">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="131"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
       <c r="I16" s="86"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="132"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
       <c r="I17" s="86"/>
     </row>
     <row r="18" ht="53.25" customHeight="1" spans="1:9">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
       <c r="I18" s="86"/>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A19" s="128"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
+      <c r="A19" s="140"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
       <c r="I19" s="86"/>
     </row>
     <row r="20" ht="45.75" customHeight="1" spans="1:9">
-      <c r="A20" s="135"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
+      <c r="A20" s="147"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
       <c r="I20" s="86"/>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A21" s="136"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
       <c r="I21" s="86"/>
     </row>
     <row r="22" ht="22.15" customHeight="1" spans="1:9">
-      <c r="A22" s="137" t="s">
+      <c r="A22" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="138"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
       <c r="I22" s="86"/>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A23" s="128"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
+      <c r="A23" s="140"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
       <c r="I23" s="86"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:9">
-      <c r="A24" s="128"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
+      <c r="A24" s="140"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
       <c r="I24" s="86"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:9">
-      <c r="A25" s="128"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
+      <c r="A25" s="140"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
       <c r="I25" s="86"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:9">
-      <c r="A26" s="128"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
+      <c r="A26" s="140"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
       <c r="I26" s="86"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:9">
-      <c r="A27" s="128"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
+      <c r="A27" s="140"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
       <c r="I27" s="86"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:9">
-      <c r="A28" s="128"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
       <c r="I28" s="86"/>
     </row>
     <row r="29" ht="22.15" customHeight="1" spans="1:9">
-      <c r="A29" s="139" t="s">
+      <c r="A29" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
       <c r="I29" s="86"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="132"/>
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
+      <c r="A30" s="144"/>
+      <c r="B30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
       <c r="I30" s="86"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="132"/>
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
+      <c r="A31" s="144"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
       <c r="I31" s="86"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="141"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
+      <c r="A32" s="153"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
       <c r="I32" s="86"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:9">
-      <c r="A33" s="143" t="s">
+      <c r="A33" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="144">
+      <c r="B33" s="156">
         <v>10</v>
       </c>
-      <c r="C33" s="143" t="s">
+      <c r="C33" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="144">
+      <c r="D33" s="156">
         <v>10</v>
       </c>
-      <c r="E33" s="143" t="s">
+      <c r="E33" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="144"/>
-      <c r="G33" s="145" t="s">
+      <c r="F33" s="156">
+        <v>0</v>
+      </c>
+      <c r="G33" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="146">
+      <c r="H33" s="158">
         <v>44788</v>
       </c>
-      <c r="I33" s="155"/>
+      <c r="I33" s="167"/>
     </row>
     <row r="34" ht="29.25" customHeight="1" spans="1:9">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="143" t="s">
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="155" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="155"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="167"/>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A35" s="148"/>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161"/>
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="161"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="161"/>
       <c r="I35" s="86"/>
     </row>
     <row r="36" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A36" s="150"/>
-      <c r="B36" s="129"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
+      <c r="A36" s="162"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="141"/>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
       <c r="I36" s="86"/>
     </row>
     <row r="37" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A37" s="151"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="164"/>
       <c r="I37" s="87"/>
     </row>
   </sheetData>
@@ -16049,8 +16162,8 @@
   <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I14"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -16081,14 +16194,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="109"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="117"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -16112,10 +16225,10 @@
     </row>
     <row r="3" ht="21" customHeight="1" spans="1:18">
       <c r="A3" s="5"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="125" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -16136,14 +16249,14 @@
       <c r="I3" s="69">
         <v>5</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -16159,14 +16272,14 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
@@ -16182,15 +16295,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="110"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="118"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -16206,15 +16319,15 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="111"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="119"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
@@ -16230,15 +16343,15 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="112"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="120"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -16253,14 +16366,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -16280,17 +16393,17 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="113"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="121"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
@@ -16303,23 +16416,23 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>5.25</v>
-      </c>
-      <c r="G10" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="93" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -16332,24 +16445,24 @@
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="35">
-        <v>3</v>
-      </c>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="128">
+        <v>2</v>
+      </c>
+      <c r="G11" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="100" t="s">
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -16364,14 +16477,14 @@
       <c r="G12" s="36"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -16386,14 +16499,14 @@
       <c r="G13" s="36"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -16408,14 +16521,14 @@
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -16430,14 +16543,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -16452,14 +16565,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -16472,19 +16585,19 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -16500,14 +16613,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -16525,15 +16638,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="114"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="122"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -16547,15 +16660,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="115"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="123"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -16569,15 +16682,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="115"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="123"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -16591,15 +16704,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="116"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="124"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>
@@ -16752,8 +16865,8 @@
   <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -16784,14 +16897,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="109"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="117"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -16818,7 +16931,7 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="125" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -16839,14 +16952,14 @@
       <c r="I3" s="69">
         <v>2</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -16862,14 +16975,14 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
@@ -16885,15 +16998,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="110"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="118"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -16909,15 +17022,15 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="111"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="119"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
@@ -16933,15 +17046,15 @@
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="112"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="120"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -16956,14 +17069,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -16983,17 +17096,17 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="113"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="121"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
@@ -17006,23 +17119,23 @@
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>5.25</v>
-      </c>
-      <c r="G10" s="118" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -17036,23 +17149,23 @@
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="35">
-        <v>1</v>
-      </c>
-      <c r="G11" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="93" t="s">
         <v>58</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="100" t="s">
+      <c r="J11" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -17060,29 +17173,23 @@
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>59</v>
-      </c>
+      <c r="C12" s="33"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="35">
-        <v>2</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>60</v>
-      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="100" t="s">
+      <c r="J12" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -17094,17 +17201,17 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="38"/>
-      <c r="G13" s="118"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -17119,14 +17226,14 @@
       <c r="G14" s="36"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -17141,14 +17248,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -17163,14 +17270,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -17183,19 +17290,19 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -17211,14 +17318,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -17236,15 +17343,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="114"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="122"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -17258,15 +17365,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="115"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="123"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -17280,15 +17387,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="115"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="123"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -17302,15 +17409,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="116"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="124"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>
@@ -17463,8 +17570,8 @@
   <sheetPr/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:E10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -17513,14 +17620,14 @@
       <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="125" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -17532,7 +17639,7 @@
         <v>32</v>
       </c>
       <c r="I3" s="69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="70"/>
     </row>
@@ -17556,7 +17663,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -17572,7 +17679,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -17588,7 +17695,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="23">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -17640,7 +17747,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -17648,7 +17755,7 @@
         <v>5</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
@@ -17662,7 +17769,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -17670,7 +17777,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
@@ -17951,7 +18058,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C10" sqref="C10:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -18007,7 +18114,8 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <f>C6</f>
+        <v>43330</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -18043,7 +18151,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -18059,7 +18167,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43343</v>
+        <v>43330</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -18074,16 +18182,16 @@
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43343</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="74"/>
+      <c r="C7" s="20">
+        <v>43330</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:10">
       <c r="A8" s="13"/>
@@ -18127,20 +18235,20 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
       <c r="J10" s="78" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:10">
@@ -18149,7 +18257,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -18157,7 +18265,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
@@ -18170,42 +18278,66 @@
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="38">
+        <v>3</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="79"/>
+      <c r="J12" s="79" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:10">
       <c r="A13" s="13"/>
       <c r="B13" s="32">
         <v>4</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="34" t="s">
+        <v>70</v>
+      </c>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="38">
+        <v>1</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>71</v>
+      </c>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="79"/>
+      <c r="J13" s="79" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:10">
       <c r="A14" s="13"/>
       <c r="B14" s="32">
         <v>5</v>
       </c>
-      <c r="C14" s="34"/>
+      <c r="C14" s="34" t="s">
+        <v>72</v>
+      </c>
       <c r="D14" s="34"/>
       <c r="E14" s="34"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="38">
+        <v>1</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>73</v>
+      </c>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="79"/>
+      <c r="J14" s="79" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:10">
       <c r="A15" s="13"/>
@@ -18438,7 +18570,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -18469,16 +18601,16 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="109"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="117"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:20">
       <c r="A2" s="5"/>
@@ -18514,7 +18646,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44792</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -18528,16 +18660,16 @@
       <c r="I3" s="69">
         <v>2</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
       <c r="T3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:20">
@@ -18553,16 +18685,16 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:20">
       <c r="A5" s="13"/>
@@ -18570,7 +18702,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -18578,17 +18710,17 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="110"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="118"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:20">
       <c r="A6" s="13"/>
@@ -18596,7 +18728,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43344</v>
+        <v>43331</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -18604,43 +18736,43 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="94"/>
-      <c r="S6" s="94"/>
-      <c r="T6" s="111"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="119"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:20">
       <c r="A7" s="13"/>
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43344</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="96"/>
-      <c r="T7" s="112"/>
+      <c r="C7" s="20">
+        <v>43331</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="120"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:20">
       <c r="A8" s="13"/>
@@ -18655,16 +18787,16 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="97"/>
-      <c r="T8" s="97"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:20">
       <c r="A9" s="13"/>
@@ -18684,19 +18816,19 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="113"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="121"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:20">
       <c r="A10" s="13"/>
@@ -18704,30 +18836,30 @@
         <v>1</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
+      <c r="J10" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="109"/>
+      <c r="S10" s="109"/>
       <c r="T10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:20">
@@ -18735,23 +18867,31 @@
       <c r="B11" s="32">
         <v>2</v>
       </c>
-      <c r="C11" s="34"/>
+      <c r="C11" s="34" t="s">
+        <v>77</v>
+      </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="38">
+        <v>2</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
+      <c r="J11" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
       <c r="T11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:20">
@@ -18759,23 +18899,31 @@
       <c r="B12" s="40">
         <v>3</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="C12" s="34" t="s">
+        <v>79</v>
+      </c>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="38">
+        <v>2</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
+      <c r="J12" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="109"/>
       <c r="T12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:20">
@@ -18790,16 +18938,16 @@
       <c r="G13" s="39"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
       <c r="T13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:20">
@@ -18814,16 +18962,16 @@
       <c r="G14" s="39"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
+      <c r="R14" s="109"/>
+      <c r="S14" s="109"/>
       <c r="T14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:20">
@@ -18838,16 +18986,16 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="109"/>
       <c r="T15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:20">
@@ -18862,16 +19010,16 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
+      <c r="R16" s="109"/>
+      <c r="S16" s="109"/>
       <c r="T16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:20">
@@ -18884,21 +19032,21 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="102"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
       <c r="T17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:20">
@@ -18914,16 +19062,16 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:20">
       <c r="A19" s="13"/>
@@ -18941,17 +19089,17 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
-      <c r="S19" s="104"/>
-      <c r="T19" s="114"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="112"/>
+      <c r="S19" s="112"/>
+      <c r="T19" s="122"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:20">
       <c r="A20" s="13"/>
@@ -18965,17 +19113,17 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="106"/>
-      <c r="S20" s="106"/>
-      <c r="T20" s="115"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="123"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:20">
       <c r="A21" s="13"/>
@@ -18989,17 +19137,17 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="106"/>
-      <c r="S21" s="106"/>
-      <c r="T21" s="115"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="123"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:20">
       <c r="A22" s="13"/>
@@ -19013,17 +19161,17 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="108"/>
-      <c r="S22" s="108"/>
-      <c r="T22" s="116"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="116"/>
+      <c r="T22" s="124"/>
     </row>
     <row r="23" customHeight="1" spans="1:20">
       <c r="A23" s="5"/>
@@ -19187,7 +19335,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -19218,14 +19366,14 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="109"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="117"/>
     </row>
     <row r="2" ht="8" customHeight="1" spans="1:18">
       <c r="A2" s="5"/>
@@ -19259,7 +19407,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="11">
-        <v>44788</v>
+        <v>44793</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>30</v>
@@ -19271,16 +19419,16 @@
         <v>32</v>
       </c>
       <c r="I3" s="69">
-        <v>2</v>
-      </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
+        <v>5</v>
+      </c>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
       <c r="R3" s="70"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="1:18">
@@ -19296,22 +19444,22 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="71"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="1:18">
       <c r="A5" s="13"/>
       <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>73</v>
+      <c r="C5" s="91" t="s">
+        <v>81</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -19319,15 +19467,15 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="110"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="118"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="1:18">
       <c r="A6" s="13"/>
@@ -19335,7 +19483,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="20">
-        <v>43345</v>
+        <v>43332</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -19343,39 +19491,39 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="111"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+      <c r="Q6" s="103"/>
+      <c r="R6" s="119"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="1:18">
       <c r="A7" s="13"/>
       <c r="B7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="23">
-        <v>43345</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="112"/>
+      <c r="C7" s="20">
+        <v>43332</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
+      <c r="R7" s="120"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:18">
       <c r="A8" s="13"/>
@@ -19390,14 +19538,14 @@
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="75"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="105"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="1:18">
       <c r="A9" s="13"/>
@@ -19417,46 +19565,46 @@
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
-      <c r="J9" s="98" t="s">
+      <c r="J9" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="113"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="121"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="1:18">
       <c r="A10" s="13"/>
       <c r="B10" s="32">
         <v>1</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>74</v>
+      <c r="C10" s="92" t="s">
+        <v>82</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35">
-        <v>3</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>83</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="77"/>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="101"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="101"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="101"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="109"/>
       <c r="R10" s="79"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:18">
@@ -19471,14 +19619,14 @@
       <c r="G11" s="39"/>
       <c r="H11" s="37"/>
       <c r="I11" s="77"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
       <c r="R11" s="79"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="1:18">
@@ -19493,14 +19641,14 @@
       <c r="G12" s="39"/>
       <c r="H12" s="37"/>
       <c r="I12" s="77"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="109"/>
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" ht="20.1" customHeight="1" spans="1:18">
@@ -19515,14 +19663,14 @@
       <c r="G13" s="39"/>
       <c r="H13" s="37"/>
       <c r="I13" s="77"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
       <c r="R13" s="79"/>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="1:18">
@@ -19537,14 +19685,14 @@
       <c r="G14" s="39"/>
       <c r="H14" s="37"/>
       <c r="I14" s="77"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="101"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="101"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="109"/>
+      <c r="P14" s="109"/>
+      <c r="Q14" s="109"/>
       <c r="R14" s="79"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="1:18">
@@ -19559,14 +19707,14 @@
       <c r="G15" s="39"/>
       <c r="H15" s="37"/>
       <c r="I15" s="77"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="109"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
       <c r="R15" s="79"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="1:18">
@@ -19581,14 +19729,14 @@
       <c r="G16" s="39"/>
       <c r="H16" s="37"/>
       <c r="I16" s="77"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="109"/>
+      <c r="P16" s="109"/>
+      <c r="Q16" s="109"/>
       <c r="R16" s="79"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="1:18">
@@ -19601,19 +19749,19 @@
       <c r="E17" s="43"/>
       <c r="F17" s="44">
         <f>SUM(F10:F16)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="45"/>
       <c r="H17" s="46"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
       <c r="R17" s="81"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:18">
@@ -19629,14 +19777,14 @@
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
       <c r="J18" s="75"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="1:18">
       <c r="A19" s="13"/>
@@ -19654,15 +19802,15 @@
       <c r="G19" s="50"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
-      <c r="J19" s="103"/>
-      <c r="K19" s="104"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
-      <c r="N19" s="104"/>
-      <c r="O19" s="104"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="114"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="112"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="112"/>
+      <c r="N19" s="112"/>
+      <c r="O19" s="112"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="122"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="1:18">
       <c r="A20" s="13"/>
@@ -19676,15 +19824,15 @@
       <c r="G20" s="54"/>
       <c r="H20" s="54"/>
       <c r="I20" s="54"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="106"/>
-      <c r="N20" s="106"/>
-      <c r="O20" s="106"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="106"/>
-      <c r="R20" s="115"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="123"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="1:18">
       <c r="A21" s="13"/>
@@ -19698,15 +19846,15 @@
       <c r="G21" s="54"/>
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="106"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="106"/>
-      <c r="R21" s="115"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="123"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="1:18">
       <c r="A22" s="13"/>
@@ -19720,15 +19868,15 @@
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="59"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="108"/>
-      <c r="R22" s="116"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="124"/>
     </row>
     <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="5"/>
